--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1403.460003066912</v>
+        <v>280.4975775878919</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.288000106811523</v>
+        <v>0.5839998722076416</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.80957162069346</v>
+        <v>54.4975775878919</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.082733700630662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.983165146930532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1111.739999999918</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.01</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -896,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -912,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.290651449028</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.28226196994633</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -966,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,62 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000004</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1162,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000007</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1173,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1184,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000004</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1195,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000005</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1206,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>44.44000000000597</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1217,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>38.53500000000713</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1228,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>41.37000000000626</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1239,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>45.81500000000597</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1250,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>45.83500000000822</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1261,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>125.4949999999753</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1272,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>121.6349999999748</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1283,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>109.3699999999717</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1294,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>122.0549999999748</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>123.5550000000385</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1316,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000079</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -1327,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000043</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -1338,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000055</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -1360,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000044</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -1371,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000078</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1382,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000384</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -1393,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000405</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1404,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000359</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1415,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.565000000004</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1426,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000079</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1437,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000043</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34">
@@ -1448,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000055</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1459,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -1470,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000044</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
@@ -1481,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6100000000004</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -1492,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.5950000000007</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
@@ -1503,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40">
@@ -1514,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4400000000004</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1525,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>113.6550000000005</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -1536,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>125.4949999999753</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1547,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>121.6349999999748</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -1558,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>109.3699999999717</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1569,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>122.0549999999748</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
@@ -1580,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>123.5550000000385</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.61500000000785</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1638,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.81000000000427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1649,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.46500000000555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1660,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>77.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1671,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>79.1300000000044</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1682,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.61000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1693,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.59500000000074</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1704,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.24000000000004</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1715,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4400000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1726,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>13.65500000000048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1737,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>25.49499999997533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1748,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>21.63499999997475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1759,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>9.369999999971697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>22.05499999997483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1781,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>23.55500000003849</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1839,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1850,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1861,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1872,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1883,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1894,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1905,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1916,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1927,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1938,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1949,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1960,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1971,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1982,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2106,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,10 +2055,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2144,10 +2066,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2155,10 +2077,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2166,10 +2088,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2177,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2188,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2199,122 +2121,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
